--- a/resources/experiment 1/metrics/MAPE/average time/Ceguera.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Ceguera.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03432994851476932</v>
+        <v>0.0368061972743692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03432994851476932</v>
+        <v>0.03802866507999527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03432994851476932</v>
+        <v>0.0384258460334149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03337245194201802</v>
+        <v>0.03495736580196739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03337245194201802</v>
+        <v>0.03503668499210437</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03337245194201802</v>
+        <v>0.03501326136718511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06014580273977824</v>
+        <v>0.03614895606264568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06014580273977824</v>
+        <v>0.03554943969873335</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06014580273977824</v>
+        <v>0.03268968492600135</v>
       </c>
     </row>
   </sheetData>
